--- a/mbs-perturbation/greedy/svm/smote/greedy-svm-poly-results.xlsx
+++ b/mbs-perturbation/greedy/svm/smote/greedy-svm-poly-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.8487394957983193</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5194805194805194</v>
+        <v>0.8744588744588745</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6201550387596898</v>
+        <v>0.861407249466951</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5111504656959203</v>
+        <v>0.9219935908247597</v>
       </c>
     </row>
     <row r="3">
@@ -489,13 +489,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4891774891774892</v>
+        <v>0.8268398268398268</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6569767441860465</v>
+        <v>0.90521327014218</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4891774891774892</v>
+        <v>0.9967017109874252</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.9766355140186916</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5584415584415584</v>
+        <v>0.9047619047619048</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7166666666666666</v>
+        <v>0.9393258426966292</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5584415584415584</v>
+        <v>0.9944341372912802</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.8739130434782608</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5194805194805194</v>
+        <v>0.8701298701298701</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6837606837606837</v>
+        <v>0.8720173535791756</v>
       </c>
       <c r="E5" t="n">
-        <v>0.520609824957651</v>
+        <v>0.9630717108977979</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.9739583333333334</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5826086956521739</v>
+        <v>0.8130434782608695</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7362637362637362</v>
+        <v>0.886255924170616</v>
       </c>
       <c r="E6" t="n">
-        <v>0.918840579710145</v>
+        <v>0.985055524185959</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9538461538461538</v>
+        <v>0.9346492773257211</v>
       </c>
       <c r="C7" t="n">
-        <v>0.533837756446452</v>
+        <v>0.8578467908902692</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6827645739273646</v>
+        <v>0.8928439280111103</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5996439835965528</v>
+        <v>0.9722513348374443</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/greedy/svm/smote/greedy-svm-poly-results.xlsx
+++ b/mbs-perturbation/greedy/svm/smote/greedy-svm-poly-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8487394957983193</v>
+        <v>0.6150627615062761</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8744588744588745</v>
+        <v>0.7067307692307693</v>
       </c>
       <c r="D2" t="n">
-        <v>0.861407249466951</v>
+        <v>0.6577181208053692</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9219935908247597</v>
+        <v>0.5996440458579881</v>
       </c>
     </row>
     <row r="3">
@@ -489,13 +489,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8268398268398268</v>
+        <v>0.6490384615384616</v>
       </c>
       <c r="D3" t="n">
-        <v>0.90521327014218</v>
+        <v>0.7871720116618075</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9967017109874252</v>
+        <v>0.9515301405325444</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9766355140186916</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9047619047619048</v>
+        <v>0.7211538461538461</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9393258426966292</v>
+        <v>0.8379888268156424</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9944341372912802</v>
+        <v>0.9875531619822485</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8739130434782608</v>
+        <v>0.5836909871244635</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8701298701298701</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8720173535791756</v>
+        <v>0.6167800453514739</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9630717108977979</v>
+        <v>0.6518121301775148</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9739583333333334</v>
+        <v>0.4851485148514851</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8130434782608695</v>
+        <v>0.7067307692307693</v>
       </c>
       <c r="D6" t="n">
-        <v>0.886255924170616</v>
+        <v>0.5753424657534247</v>
       </c>
       <c r="E6" t="n">
-        <v>0.985055524185959</v>
+        <v>0.4850453032544378</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9346492773257211</v>
+        <v>0.736780452696445</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8578467908902692</v>
+        <v>0.6875</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8928439280111103</v>
+        <v>0.6950002940775436</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9722513348374443</v>
+        <v>0.7351169563609468</v>
       </c>
     </row>
   </sheetData>
